--- a/2024-10-24/3.Bad-RS3 Good-RS6.xlsx
+++ b/2024-10-24/3.Bad-RS3 Good-RS6.xlsx
@@ -846,7 +846,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>62.89</v>
+        <v>62.39</v>
       </c>
       <c r="D2">
         <v>59</v>
@@ -861,7 +861,7 @@
         <v>1614.03</v>
       </c>
       <c r="H2">
-        <v>-18.85</v>
+        <v>-19.5</v>
       </c>
       <c r="I2">
         <v>101.43</v>
@@ -896,7 +896,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>156.06</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>72</v>
@@ -911,7 +911,7 @@
         <v>509.46</v>
       </c>
       <c r="H3">
-        <v>-32.96</v>
+        <v>-32.13</v>
       </c>
       <c r="I3">
         <v>116.4</v>
@@ -946,7 +946,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>177.9</v>
       </c>
       <c r="D4">
         <v>79</v>
@@ -961,7 +961,7 @@
         <v>687.74</v>
       </c>
       <c r="H4">
-        <v>-23.74</v>
+        <v>-24.63</v>
       </c>
       <c r="I4">
         <v>147.2</v>
@@ -996,7 +996,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1197.95</v>
+        <v>1199.75</v>
       </c>
       <c r="D5">
         <v>70</v>
@@ -1011,7 +1011,7 @@
         <v>29328.86</v>
       </c>
       <c r="H5">
-        <v>-17.56</v>
+        <v>-17.44</v>
       </c>
       <c r="I5">
         <v>106.64</v>
@@ -1046,7 +1046,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>459.75</v>
+        <v>465</v>
       </c>
       <c r="D6">
         <v>42</v>
@@ -1061,7 +1061,7 @@
         <v>7791.64</v>
       </c>
       <c r="H6">
-        <v>-28.02</v>
+        <v>-27.2</v>
       </c>
       <c r="I6">
         <v>44.14</v>
@@ -1096,7 +1096,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>942.35</v>
+        <v>939.2</v>
       </c>
       <c r="D7">
         <v>61</v>
@@ -1111,7 +1111,7 @@
         <v>2679.74</v>
       </c>
       <c r="H7">
-        <v>-35.36</v>
+        <v>-35.58</v>
       </c>
       <c r="I7">
         <v>124.61</v>
@@ -1146,7 +1146,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>74.72</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="D8">
         <v>65</v>
@@ -1161,7 +1161,7 @@
         <v>8737.68</v>
       </c>
       <c r="H8">
-        <v>-20</v>
+        <v>-20.07</v>
       </c>
       <c r="I8">
         <v>89.84999999999999</v>
@@ -1196,7 +1196,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>115.34</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>53</v>
@@ -1211,7 +1211,7 @@
         <v>2115.07</v>
       </c>
       <c r="H9">
-        <v>-29</v>
+        <v>-28.59</v>
       </c>
       <c r="I9">
         <v>59.28</v>
@@ -1246,7 +1246,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>29.7</v>
+        <v>28.5</v>
       </c>
       <c r="D10">
         <v>79</v>
@@ -1261,7 +1261,7 @@
         <v>502.84</v>
       </c>
       <c r="H10">
-        <v>-24.1</v>
+        <v>-27.17</v>
       </c>
       <c r="I10">
         <v>122.69</v>
@@ -1296,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>1327.55</v>
+        <v>1327.9</v>
       </c>
       <c r="D11">
         <v>65</v>
@@ -1311,7 +1311,7 @@
         <v>3409.62</v>
       </c>
       <c r="H11">
-        <v>-20.5</v>
+        <v>-20.48</v>
       </c>
       <c r="I11">
         <v>113.02</v>
@@ -1346,7 +1346,7 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>222.65</v>
+        <v>222.5</v>
       </c>
       <c r="D12">
         <v>61</v>
@@ -1361,7 +1361,7 @@
         <v>1311</v>
       </c>
       <c r="H12">
-        <v>-22.96</v>
+        <v>-23.01</v>
       </c>
       <c r="I12">
         <v>93.36</v>
@@ -1396,7 +1396,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="D13">
         <v>56</v>
@@ -1411,7 +1411,7 @@
         <v>539.03</v>
       </c>
       <c r="H13">
-        <v>-21.66</v>
+        <v>-22.64</v>
       </c>
       <c r="I13">
         <v>53.11</v>
@@ -1446,7 +1446,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>870.85</v>
+        <v>869.9</v>
       </c>
       <c r="D14">
         <v>43</v>
@@ -1461,7 +1461,7 @@
         <v>6611.7</v>
       </c>
       <c r="H14">
-        <v>-22.04</v>
+        <v>-22.12</v>
       </c>
       <c r="I14">
         <v>46.04</v>
@@ -1496,7 +1496,7 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>564.35</v>
+        <v>556</v>
       </c>
       <c r="D15">
         <v>72</v>
@@ -1511,7 +1511,7 @@
         <v>13710.81</v>
       </c>
       <c r="H15">
-        <v>-21.73</v>
+        <v>-22.88</v>
       </c>
       <c r="I15">
         <v>77.36</v>
@@ -1546,7 +1546,7 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="D16">
         <v>54</v>
@@ -1561,7 +1561,7 @@
         <v>15015.45</v>
       </c>
       <c r="H16">
-        <v>-15.81</v>
+        <v>-16.13</v>
       </c>
       <c r="I16">
         <v>51.47</v>
@@ -1596,7 +1596,7 @@
         <v>30</v>
       </c>
       <c r="C17">
-        <v>276.4</v>
+        <v>271.65</v>
       </c>
       <c r="D17">
         <v>65</v>
@@ -1611,7 +1611,7 @@
         <v>2007.65</v>
       </c>
       <c r="H17">
-        <v>-23.28</v>
+        <v>-24.59</v>
       </c>
       <c r="I17">
         <v>108.33</v>
@@ -1646,7 +1646,7 @@
         <v>31</v>
       </c>
       <c r="C18">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="D18">
         <v>74</v>
@@ -1661,7 +1661,7 @@
         <v>623.39</v>
       </c>
       <c r="H18">
-        <v>-24.35</v>
+        <v>-21.99</v>
       </c>
       <c r="I18">
         <v>137.01</v>
@@ -1696,7 +1696,7 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <v>1196.15</v>
+        <v>1247</v>
       </c>
       <c r="D19">
         <v>54</v>
@@ -1711,7 +1711,7 @@
         <v>17339.05</v>
       </c>
       <c r="H19">
-        <v>-22.51</v>
+        <v>-19.22</v>
       </c>
       <c r="I19">
         <v>66.94</v>
@@ -1746,7 +1746,7 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <v>1338.3</v>
+        <v>1343.2</v>
       </c>
       <c r="D20">
         <v>71</v>
@@ -1761,7 +1761,7 @@
         <v>23646.1</v>
       </c>
       <c r="H20">
-        <v>-18.35</v>
+        <v>-18.05</v>
       </c>
       <c r="I20">
         <v>82.3</v>
@@ -1796,7 +1796,7 @@
         <v>34</v>
       </c>
       <c r="C21">
-        <v>88.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="D21">
         <v>69</v>
@@ -1811,7 +1811,7 @@
         <v>722.72</v>
       </c>
       <c r="H21">
-        <v>-25.64</v>
+        <v>-26.4</v>
       </c>
       <c r="I21">
         <v>95.59</v>
@@ -1846,7 +1846,7 @@
         <v>35</v>
       </c>
       <c r="C22">
-        <v>308.15</v>
+        <v>309.7</v>
       </c>
       <c r="D22">
         <v>59</v>
@@ -1861,7 +1861,7 @@
         <v>1061.73</v>
       </c>
       <c r="H22">
-        <v>-20.92</v>
+        <v>-20.52</v>
       </c>
       <c r="I22">
         <v>59.51</v>
@@ -1896,7 +1896,7 @@
         <v>36</v>
       </c>
       <c r="C23">
-        <v>896.9</v>
+        <v>884</v>
       </c>
       <c r="D23">
         <v>60</v>
@@ -1911,7 +1911,7 @@
         <v>2075.98</v>
       </c>
       <c r="H23">
-        <v>-32.82</v>
+        <v>-33.78</v>
       </c>
       <c r="I23">
         <v>41.59</v>
@@ -1946,7 +1946,7 @@
         <v>37</v>
       </c>
       <c r="C24">
-        <v>368.8</v>
+        <v>362.95</v>
       </c>
       <c r="D24">
         <v>42</v>
@@ -1961,7 +1961,7 @@
         <v>669.54</v>
       </c>
       <c r="H24">
-        <v>-24.73</v>
+        <v>-25.93</v>
       </c>
       <c r="I24">
         <v>50.84</v>
@@ -1996,7 +1996,7 @@
         <v>38</v>
       </c>
       <c r="C25">
-        <v>298.15</v>
+        <v>305.5</v>
       </c>
       <c r="D25">
         <v>56</v>
@@ -2011,7 +2011,7 @@
         <v>3047.07</v>
       </c>
       <c r="H25">
-        <v>-17.83</v>
+        <v>-15.81</v>
       </c>
       <c r="I25">
         <v>57.75</v>
@@ -2046,7 +2046,7 @@
         <v>39</v>
       </c>
       <c r="C26">
-        <v>138.14</v>
+        <v>134.5</v>
       </c>
       <c r="D26">
         <v>65</v>
@@ -2061,7 +2061,7 @@
         <v>3466.34</v>
       </c>
       <c r="H26">
-        <v>-21.95</v>
+        <v>-24.01</v>
       </c>
       <c r="I26">
         <v>70.7</v>
@@ -2096,7 +2096,7 @@
         <v>40</v>
       </c>
       <c r="C27">
-        <v>171.82</v>
+        <v>173.8</v>
       </c>
       <c r="D27">
         <v>53</v>
@@ -2111,7 +2111,7 @@
         <v>4013.22</v>
       </c>
       <c r="H27">
-        <v>-23.23</v>
+        <v>-22.34</v>
       </c>
       <c r="I27">
         <v>91.70999999999999</v>
@@ -2146,7 +2146,7 @@
         <v>41</v>
       </c>
       <c r="C28">
-        <v>396.2</v>
+        <v>397.15</v>
       </c>
       <c r="D28">
         <v>56</v>
@@ -2161,7 +2161,7 @@
         <v>25511.07</v>
       </c>
       <c r="H28">
-        <v>-18.14</v>
+        <v>-17.94</v>
       </c>
       <c r="I28">
         <v>51.71</v>
@@ -2196,7 +2196,7 @@
         <v>42</v>
       </c>
       <c r="C29">
-        <v>88.51000000000001</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="D29">
         <v>45</v>
@@ -2211,7 +2211,7 @@
         <v>1078.17</v>
       </c>
       <c r="H29">
-        <v>-30.17</v>
+        <v>-31.76</v>
       </c>
       <c r="I29">
         <v>52.28</v>
@@ -2246,7 +2246,7 @@
         <v>43</v>
       </c>
       <c r="C30">
-        <v>2715.5</v>
+        <v>2719</v>
       </c>
       <c r="D30">
         <v>52</v>
@@ -2261,7 +2261,7 @@
         <v>37306.21</v>
       </c>
       <c r="H30">
-        <v>-14.31</v>
+        <v>-14.2</v>
       </c>
       <c r="I30">
         <v>42.32</v>
@@ -2296,7 +2296,7 @@
         <v>44</v>
       </c>
       <c r="C31">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D31">
         <v>53</v>
@@ -2311,7 +2311,7 @@
         <v>621.49</v>
       </c>
       <c r="H31">
-        <v>-23.9</v>
+        <v>-27.1</v>
       </c>
       <c r="I31">
         <v>68.01000000000001</v>
@@ -2346,7 +2346,7 @@
         <v>45</v>
       </c>
       <c r="C32">
-        <v>605.3</v>
+        <v>615.5</v>
       </c>
       <c r="D32">
         <v>57</v>
@@ -2361,7 +2361,7 @@
         <v>5351.01</v>
       </c>
       <c r="H32">
-        <v>-16.13</v>
+        <v>-14.72</v>
       </c>
       <c r="I32">
         <v>59.11</v>
@@ -2396,7 +2396,7 @@
         <v>46</v>
       </c>
       <c r="C33">
-        <v>504.95</v>
+        <v>496</v>
       </c>
       <c r="D33">
         <v>66</v>
@@ -2411,7 +2411,7 @@
         <v>12178.68</v>
       </c>
       <c r="H33">
-        <v>-22.55</v>
+        <v>-23.93</v>
       </c>
       <c r="I33">
         <v>62.75</v>
@@ -2446,7 +2446,7 @@
         <v>47</v>
       </c>
       <c r="C34">
-        <v>741.2</v>
+        <v>743</v>
       </c>
       <c r="D34">
         <v>64</v>
@@ -2461,7 +2461,7 @@
         <v>14304.22</v>
       </c>
       <c r="H34">
-        <v>-15.46</v>
+        <v>-15.25</v>
       </c>
       <c r="I34">
         <v>66.69</v>
@@ -2496,7 +2496,7 @@
         <v>48</v>
       </c>
       <c r="C35">
-        <v>137.99</v>
+        <v>135.4</v>
       </c>
       <c r="D35">
         <v>69</v>
@@ -2511,7 +2511,7 @@
         <v>1364.44</v>
       </c>
       <c r="H35">
-        <v>-25.13</v>
+        <v>-26.53</v>
       </c>
       <c r="I35">
         <v>93.2</v>
@@ -2546,7 +2546,7 @@
         <v>49</v>
       </c>
       <c r="C36">
-        <v>211.36</v>
+        <v>209.01</v>
       </c>
       <c r="D36">
         <v>46</v>
@@ -2561,7 +2561,7 @@
         <v>3231.63</v>
       </c>
       <c r="H36">
-        <v>-21.69</v>
+        <v>-22.56</v>
       </c>
       <c r="I36">
         <v>51.21</v>
@@ -2596,7 +2596,7 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>109.05</v>
+        <v>113</v>
       </c>
       <c r="D37">
         <v>82</v>
@@ -2611,7 +2611,7 @@
         <v>1047.87</v>
       </c>
       <c r="H37">
-        <v>-20.11</v>
+        <v>-17.22</v>
       </c>
       <c r="I37">
         <v>154.87</v>
@@ -2646,7 +2646,7 @@
         <v>51</v>
       </c>
       <c r="C38">
-        <v>772.5</v>
+        <v>764.9</v>
       </c>
       <c r="D38">
         <v>57</v>
@@ -2661,7 +2661,7 @@
         <v>14670.96</v>
       </c>
       <c r="H38">
-        <v>-16.63</v>
+        <v>-17.45</v>
       </c>
       <c r="I38">
         <v>49.68</v>
@@ -2696,7 +2696,7 @@
         <v>52</v>
       </c>
       <c r="C39">
-        <v>560.6</v>
+        <v>571.05</v>
       </c>
       <c r="D39">
         <v>60</v>
@@ -2711,7 +2711,7 @@
         <v>2890.69</v>
       </c>
       <c r="H39">
-        <v>-23.92</v>
+        <v>-22.51</v>
       </c>
       <c r="I39">
         <v>67.16</v>
@@ -2746,7 +2746,7 @@
         <v>53</v>
       </c>
       <c r="C40">
-        <v>2887</v>
+        <v>2870</v>
       </c>
       <c r="D40">
         <v>50</v>
@@ -2761,7 +2761,7 @@
         <v>9169.75</v>
       </c>
       <c r="H40">
-        <v>-22.5</v>
+        <v>-22.95</v>
       </c>
       <c r="I40">
         <v>72.39</v>
@@ -2796,7 +2796,7 @@
         <v>54</v>
       </c>
       <c r="C41">
-        <v>168.82</v>
+        <v>169.7</v>
       </c>
       <c r="D41">
         <v>79</v>
@@ -2811,7 +2811,7 @@
         <v>6298.38</v>
       </c>
       <c r="H41">
-        <v>-24.85</v>
+        <v>-24.46</v>
       </c>
       <c r="I41">
         <v>184.12</v>
@@ -2846,7 +2846,7 @@
         <v>55</v>
       </c>
       <c r="C42">
-        <v>1190.45</v>
+        <v>1156.95</v>
       </c>
       <c r="D42">
         <v>77</v>
@@ -2861,7 +2861,7 @@
         <v>5863.13</v>
       </c>
       <c r="H42">
-        <v>-21.35</v>
+        <v>-23.56</v>
       </c>
       <c r="I42">
         <v>124.64</v>
@@ -2896,7 +2896,7 @@
         <v>56</v>
       </c>
       <c r="C43">
-        <v>555.4</v>
+        <v>542.75</v>
       </c>
       <c r="D43">
         <v>65</v>
@@ -2911,7 +2911,7 @@
         <v>15484.11</v>
       </c>
       <c r="H43">
-        <v>-23.29</v>
+        <v>-25.03</v>
       </c>
       <c r="I43">
         <v>119.58</v>
@@ -2946,7 +2946,7 @@
         <v>57</v>
       </c>
       <c r="C44">
-        <v>210.65</v>
+        <v>212.5</v>
       </c>
       <c r="D44">
         <v>52</v>
@@ -2961,7 +2961,7 @@
         <v>2755.69</v>
       </c>
       <c r="H44">
-        <v>-25.25</v>
+        <v>-24.59</v>
       </c>
       <c r="I44">
         <v>75.42</v>
@@ -2996,7 +2996,7 @@
         <v>58</v>
       </c>
       <c r="C45">
-        <v>121.47</v>
+        <v>118.44</v>
       </c>
       <c r="D45">
         <v>67</v>
@@ -3011,7 +3011,7 @@
         <v>1856.35</v>
       </c>
       <c r="H45">
-        <v>-26.11</v>
+        <v>-27.96</v>
       </c>
       <c r="I45">
         <v>121.62</v>
@@ -3046,7 +3046,7 @@
         <v>59</v>
       </c>
       <c r="C46">
-        <v>1722.8</v>
+        <v>1718</v>
       </c>
       <c r="D46">
         <v>74</v>
@@ -3061,7 +3061,7 @@
         <v>13761.18</v>
       </c>
       <c r="H46">
-        <v>-35.81</v>
+        <v>-35.99</v>
       </c>
       <c r="I46">
         <v>115.74</v>
@@ -3096,7 +3096,7 @@
         <v>60</v>
       </c>
       <c r="C47">
-        <v>661.55</v>
+        <v>668.95</v>
       </c>
       <c r="D47">
         <v>47</v>
@@ -3111,7 +3111,7 @@
         <v>4717.75</v>
       </c>
       <c r="H47">
-        <v>-17.22</v>
+        <v>-16.29</v>
       </c>
       <c r="I47">
         <v>60.6</v>
@@ -3146,7 +3146,7 @@
         <v>61</v>
       </c>
       <c r="C48">
-        <v>689.35</v>
+        <v>687.05</v>
       </c>
       <c r="D48">
         <v>53</v>
@@ -3161,7 +3161,7 @@
         <v>15697.16</v>
       </c>
       <c r="H48">
-        <v>-17.89</v>
+        <v>-18.16</v>
       </c>
       <c r="I48">
         <v>51.64</v>
@@ -3196,7 +3196,7 @@
         <v>62</v>
       </c>
       <c r="C49">
-        <v>1079.35</v>
+        <v>1073.35</v>
       </c>
       <c r="D49">
         <v>49</v>
@@ -3211,7 +3211,7 @@
         <v>21358.54</v>
       </c>
       <c r="H49">
-        <v>-17.22</v>
+        <v>-17.68</v>
       </c>
       <c r="I49">
         <v>53.66</v>
@@ -3246,7 +3246,7 @@
         <v>63</v>
       </c>
       <c r="C50">
-        <v>281.7</v>
+        <v>289.9</v>
       </c>
       <c r="D50">
         <v>54</v>
@@ -3261,7 +3261,7 @@
         <v>859.95</v>
       </c>
       <c r="H50">
-        <v>-21.03</v>
+        <v>-18.73</v>
       </c>
       <c r="I50">
         <v>54.07</v>
@@ -3296,7 +3296,7 @@
         <v>64</v>
       </c>
       <c r="C51">
-        <v>788.9</v>
+        <v>809.5</v>
       </c>
       <c r="D51">
         <v>70</v>
@@ -3311,7 +3311,7 @@
         <v>2354.52</v>
       </c>
       <c r="H51">
-        <v>-27.24</v>
+        <v>-25.34</v>
       </c>
       <c r="I51">
         <v>71.04000000000001</v>
@@ -3346,7 +3346,7 @@
         <v>65</v>
       </c>
       <c r="C52">
-        <v>319.5</v>
+        <v>326.6</v>
       </c>
       <c r="D52">
         <v>85</v>
@@ -3361,7 +3361,7 @@
         <v>4060.31</v>
       </c>
       <c r="H52">
-        <v>-28.64</v>
+        <v>-27.05</v>
       </c>
       <c r="I52">
         <v>136.97</v>
@@ -3396,7 +3396,7 @@
         <v>66</v>
       </c>
       <c r="C53">
-        <v>291.65</v>
+        <v>288.1</v>
       </c>
       <c r="D53">
         <v>88</v>
@@ -3411,7 +3411,7 @@
         <v>2541.68</v>
       </c>
       <c r="H53">
-        <v>-26.72</v>
+        <v>-27.61</v>
       </c>
       <c r="I53">
         <v>168.44</v>
@@ -3446,7 +3446,7 @@
         <v>67</v>
       </c>
       <c r="C54">
-        <v>1287.9</v>
+        <v>1325</v>
       </c>
       <c r="D54">
         <v>83</v>
@@ -3461,7 +3461,7 @@
         <v>6493.05</v>
       </c>
       <c r="H54">
-        <v>-19</v>
+        <v>-16.67</v>
       </c>
       <c r="I54">
         <v>196.31</v>
@@ -3496,7 +3496,7 @@
         <v>68</v>
       </c>
       <c r="C55">
-        <v>403.15</v>
+        <v>404.2</v>
       </c>
       <c r="D55">
         <v>49</v>
@@ -3511,7 +3511,7 @@
         <v>8920.09</v>
       </c>
       <c r="H55">
-        <v>-22.17</v>
+        <v>-21.97</v>
       </c>
       <c r="I55">
         <v>52.34</v>
@@ -3546,7 +3546,7 @@
         <v>69</v>
       </c>
       <c r="C56">
-        <v>464.95</v>
+        <v>473.9</v>
       </c>
       <c r="D56">
         <v>63</v>
@@ -3561,7 +3561,7 @@
         <v>18824.63</v>
       </c>
       <c r="H56">
-        <v>-19.05</v>
+        <v>-17.49</v>
       </c>
       <c r="I56">
         <v>78.34999999999999</v>
@@ -3596,7 +3596,7 @@
         <v>70</v>
       </c>
       <c r="C57">
-        <v>523.45</v>
+        <v>510.9</v>
       </c>
       <c r="D57">
         <v>50</v>
@@ -3611,7 +3611,7 @@
         <v>1654.1</v>
       </c>
       <c r="H57">
-        <v>-29.89</v>
+        <v>-31.57</v>
       </c>
       <c r="I57">
         <v>76.61</v>
@@ -3646,7 +3646,7 @@
         <v>71</v>
       </c>
       <c r="C58">
-        <v>387</v>
+        <v>380.6</v>
       </c>
       <c r="D58">
         <v>66</v>
@@ -3661,7 +3661,7 @@
         <v>547.53</v>
       </c>
       <c r="H58">
-        <v>-30.76</v>
+        <v>-31.91</v>
       </c>
       <c r="I58">
         <v>113.58</v>
@@ -3696,7 +3696,7 @@
         <v>72</v>
       </c>
       <c r="C59">
-        <v>42.95</v>
+        <v>43.9</v>
       </c>
       <c r="D59">
         <v>28</v>
@@ -3711,7 +3711,7 @@
         <v>1292.7</v>
       </c>
       <c r="H59">
-        <v>-24.06</v>
+        <v>-22.38</v>
       </c>
       <c r="I59">
         <v>43.63</v>
@@ -3746,7 +3746,7 @@
         <v>73</v>
       </c>
       <c r="C60">
-        <v>183.3</v>
+        <v>184.55</v>
       </c>
       <c r="D60">
         <v>64</v>
@@ -3761,7 +3761,7 @@
         <v>16301.93</v>
       </c>
       <c r="H60">
-        <v>-25</v>
+        <v>-24.49</v>
       </c>
       <c r="I60">
         <v>50.66</v>
@@ -3796,7 +3796,7 @@
         <v>74</v>
       </c>
       <c r="C61">
-        <v>777.25</v>
+        <v>784.1</v>
       </c>
       <c r="D61">
         <v>67</v>
@@ -3811,7 +3811,7 @@
         <v>1791.55</v>
       </c>
       <c r="H61">
-        <v>-25.91</v>
+        <v>-25.25</v>
       </c>
       <c r="I61">
         <v>68.98</v>
@@ -3846,7 +3846,7 @@
         <v>75</v>
       </c>
       <c r="C62">
-        <v>2945.9</v>
+        <v>2934</v>
       </c>
       <c r="D62">
         <v>66</v>
@@ -3861,7 +3861,7 @@
         <v>6689.78</v>
       </c>
       <c r="H62">
-        <v>-25.1</v>
+        <v>-25.4</v>
       </c>
       <c r="I62">
         <v>92.53</v>
@@ -3896,7 +3896,7 @@
         <v>76</v>
       </c>
       <c r="C63">
-        <v>2825</v>
+        <v>2728</v>
       </c>
       <c r="D63">
         <v>60</v>
@@ -3911,7 +3911,7 @@
         <v>6991.61</v>
       </c>
       <c r="H63">
-        <v>-19.86</v>
+        <v>-22.61</v>
       </c>
       <c r="I63">
         <v>83.08</v>
@@ -3946,7 +3946,7 @@
         <v>77</v>
       </c>
       <c r="C64">
-        <v>421.05</v>
+        <v>420.6</v>
       </c>
       <c r="D64">
         <v>61</v>
@@ -3961,7 +3961,7 @@
         <v>18526.39</v>
       </c>
       <c r="H64">
-        <v>-27.08</v>
+        <v>-27.16</v>
       </c>
       <c r="I64">
         <v>50.42</v>
@@ -3996,7 +3996,7 @@
         <v>78</v>
       </c>
       <c r="C65">
-        <v>512.15</v>
+        <v>502</v>
       </c>
       <c r="D65">
         <v>49</v>
@@ -4011,7 +4011,7 @@
         <v>18362.29</v>
       </c>
       <c r="H65">
-        <v>-14.05</v>
+        <v>-15.75</v>
       </c>
       <c r="I65">
         <v>50.17</v>
@@ -4046,7 +4046,7 @@
         <v>79</v>
       </c>
       <c r="C66">
-        <v>589.1</v>
+        <v>582</v>
       </c>
       <c r="D66">
         <v>61</v>
@@ -4061,7 +4061,7 @@
         <v>1605.15</v>
       </c>
       <c r="H66">
-        <v>-18.75</v>
+        <v>-19.73</v>
       </c>
       <c r="I66">
         <v>48.42</v>
@@ -4096,7 +4096,7 @@
         <v>80</v>
       </c>
       <c r="C67">
-        <v>1509.65</v>
+        <v>1417</v>
       </c>
       <c r="D67">
         <v>47</v>
@@ -4111,7 +4111,7 @@
         <v>44810.21</v>
       </c>
       <c r="H67">
-        <v>-21.73</v>
+        <v>-26.53</v>
       </c>
       <c r="I67">
         <v>49.79</v>
@@ -4146,7 +4146,7 @@
         <v>81</v>
       </c>
       <c r="C68">
-        <v>1198.35</v>
+        <v>1215.3</v>
       </c>
       <c r="D68">
         <v>62</v>
@@ -4161,7 +4161,7 @@
         <v>1983.31</v>
       </c>
       <c r="H68">
-        <v>-22.28</v>
+        <v>-21.18</v>
       </c>
       <c r="I68">
         <v>57.26</v>
@@ -4196,7 +4196,7 @@
         <v>82</v>
       </c>
       <c r="C69">
-        <v>500.45</v>
+        <v>498</v>
       </c>
       <c r="D69">
         <v>63</v>
@@ -4211,7 +4211,7 @@
         <v>9658.77</v>
       </c>
       <c r="H69">
-        <v>-27.36</v>
+        <v>-27.71</v>
       </c>
       <c r="I69">
         <v>61.81</v>
@@ -4246,7 +4246,7 @@
         <v>83</v>
       </c>
       <c r="C70">
-        <v>588.5</v>
+        <v>585</v>
       </c>
       <c r="D70">
         <v>53</v>
@@ -4261,7 +4261,7 @@
         <v>13444.93</v>
       </c>
       <c r="H70">
-        <v>-20.38</v>
+        <v>-20.85</v>
       </c>
       <c r="I70">
         <v>68.01000000000001</v>
@@ -4296,7 +4296,7 @@
         <v>84</v>
       </c>
       <c r="C71">
-        <v>4236.6</v>
+        <v>4212.55</v>
       </c>
       <c r="D71">
         <v>82</v>
@@ -4311,7 +4311,7 @@
         <v>84569.63</v>
       </c>
       <c r="H71">
-        <v>-27.7</v>
+        <v>-28.11</v>
       </c>
       <c r="I71">
         <v>140.7</v>
@@ -4346,7 +4346,7 @@
         <v>85</v>
       </c>
       <c r="C72">
-        <v>68.75</v>
+        <v>69.08</v>
       </c>
       <c r="D72">
         <v>83</v>
@@ -4361,7 +4361,7 @@
         <v>93957.32000000001</v>
       </c>
       <c r="H72">
-        <v>-20.1</v>
+        <v>-19.71</v>
       </c>
       <c r="I72">
         <v>129.5</v>
@@ -4396,7 +4396,7 @@
         <v>86</v>
       </c>
       <c r="C73">
-        <v>3298.75</v>
+        <v>3218.5</v>
       </c>
       <c r="D73">
         <v>67</v>
@@ -4411,7 +4411,7 @@
         <v>90601.25999999999</v>
       </c>
       <c r="H73">
-        <v>-15.2</v>
+        <v>-17.26</v>
       </c>
       <c r="I73">
         <v>66.14</v>
